--- a/FP/Hasil Mentah Kuesioner Cost Fitur IBK Online (Responses).xlsx
+++ b/FP/Hasil Mentah Kuesioner Cost Fitur IBK Online (Responses).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TerCapai\SMT6\RK\RK_B_IBK\FP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7622382-B7DE-4944-B847-6D1EE8E80B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA5117-9932-493A-B358-26D91E212B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-1230" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Timestamp</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Bagas Yanuar Sudrajad</t>
+  </si>
+  <si>
+    <t>Adanya fitur refund IBK online</t>
+  </si>
+  <si>
+    <t>Adanya fitur estimasi jumlah bahan bakar yang terpakai di IBK online</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -111,6 +117,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,12 +144,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,19 +370,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="21.5546875" customWidth="1"/>
+    <col min="1" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" style="6" customWidth="1"/>
+    <col min="14" max="21" width="21.5546875" customWidth="1"/>
+    <col min="22" max="22" width="21.5546875" style="6" customWidth="1"/>
+    <col min="23" max="28" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,32 +423,38 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="V1" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43960.975973622684</v>
       </c>
@@ -468,14 +491,14 @@
       <c r="L2" s="4">
         <v>4</v>
       </c>
-      <c r="M2" s="4">
-        <v>3</v>
+      <c r="M2" s="5">
+        <v>4</v>
       </c>
       <c r="N2" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="4">
         <v>4</v>
@@ -484,16 +507,22 @@
         <v>4</v>
       </c>
       <c r="R2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2" s="4">
         <v>4</v>
       </c>
+      <c r="U2" s="4">
+        <v>4</v>
+      </c>
+      <c r="V2" s="5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43961.610337604172</v>
       </c>
@@ -530,32 +559,38 @@
       <c r="L3" s="4">
         <v>4</v>
       </c>
-      <c r="M3" s="4">
-        <v>3</v>
+      <c r="M3" s="5">
+        <v>4</v>
       </c>
       <c r="N3" s="4">
         <v>3</v>
       </c>
       <c r="O3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="4">
         <v>3</v>
       </c>
       <c r="T3" s="4">
+        <v>3</v>
+      </c>
+      <c r="U3" s="4">
+        <v>4</v>
+      </c>
+      <c r="V3" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43961.842025219907</v>
       </c>
@@ -592,8 +627,8 @@
       <c r="L4" s="4">
         <v>4</v>
       </c>
-      <c r="M4" s="4">
-        <v>3</v>
+      <c r="M4" s="5">
+        <v>4</v>
       </c>
       <c r="N4" s="4">
         <v>3</v>
@@ -602,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="4">
         <v>2</v>
@@ -614,7 +649,13 @@
         <v>2</v>
       </c>
       <c r="T4" s="4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="U4" s="4">
+        <v>3</v>
+      </c>
+      <c r="V4" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/FP/Hasil Mentah Kuesioner Cost Fitur IBK Online (Responses).xlsx
+++ b/FP/Hasil Mentah Kuesioner Cost Fitur IBK Online (Responses).xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TerCapai\SMT6\RK\RK_B_IBK\FP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FA5117-9932-493A-B358-26D91E212B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC95B1E-A078-4204-B8E9-2BDC16ABA260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-1230" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Timestamp</t>
   </si>
@@ -46,9 +56,6 @@
     <t>Adanya fitur pembatalan pemesanan di IBK online</t>
   </si>
   <si>
-    <t>Adanya fitur penerimaan pemesanan di IBK online</t>
-  </si>
-  <si>
     <t>Adanya fitur komunikasi driver IBK dengan customer di IBK online</t>
   </si>
   <si>
@@ -67,9 +74,6 @@
     <t>Adanya fitur pengubahan status pesanan IBK online</t>
   </si>
   <si>
-    <t>Adanya fitur daftar pembatalan pesanan di IBK online</t>
-  </si>
-  <si>
     <t>Adanya fitur yang menampilkan hasil rating selama ini di IBK online</t>
   </si>
   <si>
@@ -92,6 +96,9 @@
   </si>
   <si>
     <t>Adanya fitur estimasi jumlah bahan bakar yang terpakai di IBK online</t>
+  </si>
+  <si>
+    <t>Adanya fitur pembatalan pesanan di IBK online</t>
   </si>
 </sst>
 </file>
@@ -370,23 +377,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" style="6" customWidth="1"/>
-    <col min="14" max="21" width="21.5546875" customWidth="1"/>
-    <col min="22" max="22" width="21.5546875" style="6" customWidth="1"/>
-    <col min="23" max="28" width="21.5546875" customWidth="1"/>
+    <col min="1" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="6" customWidth="1"/>
+    <col min="13" max="20" width="21.5546875" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" style="6" customWidth="1"/>
+    <col min="22" max="27" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,20 +418,20 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
@@ -433,33 +440,30 @@
         <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>23</v>
+      <c r="U1" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43960.975973622684</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -486,19 +490,19 @@
         <v>3</v>
       </c>
       <c r="K2" s="4">
-        <v>3</v>
-      </c>
-      <c r="L2" s="4">
-        <v>4</v>
-      </c>
-      <c r="M2" s="5">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4">
+        <v>3</v>
       </c>
       <c r="N2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" s="4">
         <v>4</v>
@@ -507,27 +511,24 @@
         <v>4</v>
       </c>
       <c r="R2" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S2" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T2" s="4">
         <v>4</v>
       </c>
-      <c r="U2" s="4">
-        <v>4</v>
-      </c>
-      <c r="V2" s="5">
+      <c r="U2" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43961.610337604172</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -554,48 +555,45 @@
         <v>3</v>
       </c>
       <c r="K3" s="4">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3</v>
       </c>
       <c r="N3" s="4">
         <v>3</v>
       </c>
       <c r="O3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3" s="4">
         <v>3</v>
       </c>
       <c r="T3" s="4">
-        <v>3</v>
-      </c>
-      <c r="U3" s="4">
-        <v>4</v>
-      </c>
-      <c r="V3" s="5">
+        <v>4</v>
+      </c>
+      <c r="U3" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43961.842025219907</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -616,19 +614,19 @@
         <v>4</v>
       </c>
       <c r="I4" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="4">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4">
-        <v>4</v>
-      </c>
-      <c r="M4" s="5">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4">
+        <v>3</v>
       </c>
       <c r="N4" s="4">
         <v>3</v>
@@ -637,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="4">
         <v>2</v>
@@ -649,12 +647,9 @@
         <v>2</v>
       </c>
       <c r="T4" s="4">
-        <v>2</v>
-      </c>
-      <c r="U4" s="4">
-        <v>3</v>
-      </c>
-      <c r="V4" s="5">
+        <v>3</v>
+      </c>
+      <c r="U4" s="5">
         <v>4</v>
       </c>
     </row>
